--- a/evaluations/zero_shot_prompting_100_questions.xlsx
+++ b/evaluations/zero_shot_prompting_100_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wansn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1F1A9-CC2D-43EE-B003-3C209803BEB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87B9B6-92B3-47D7-9E9A-5A8C021380F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2666,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="360" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="288" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="288" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="288" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>100</v>
       </c>
